--- a/заказы/статистика филиалы/2024/01,24/18,01,24 ЗПФ/дв 18,01,24 лгрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/18,01,24 ЗПФ/дв 18,01,24 лгрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\18,01,24 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\18,01,24 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35903BC4-736B-4589-A676-DBA56EC84539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46ED3E-FB0C-459B-A92C-8A52BBB5E07C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>Период: 11.01.2024 - 18.01.2024</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>Вояж-МАНГО (устар. инфа)</t>
+  </si>
+  <si>
+    <t>22,01,</t>
   </si>
 </sst>
 </file>
@@ -13976,7 +13979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA66" sqref="AA66"/>
+      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -14127,7 +14130,9 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="12"/>
-      <c r="Y4" s="17"/>
+      <c r="Y4" s="17" t="s">
+        <v>104</v>
+      </c>
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -19508,7 +19513,7 @@
         <v>12</v>
       </c>
       <c r="Y71" s="26">
-        <f t="shared" ref="Y71:Y75" si="18">N71/X71</f>
+        <f t="shared" ref="Y71:Y73" si="18">N71/X71</f>
         <v>0</v>
       </c>
       <c r="Z71" s="2">
